--- a/data/trans_orig/P74B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Edad-trans_orig.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4673</v>
+        <v>3838</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1522730690304736</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7240126554360614</v>
+        <v>0.5946765831808765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5243</v>
+        <v>5089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02428292937708442</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1295421261486108</v>
+        <v>0.1257461500930828</v>
       </c>
     </row>
     <row r="5">
@@ -819,7 +819,7 @@
         <v>5471</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1781</v>
+        <v>2616</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>6454</v>
@@ -828,7 +828,7 @@
         <v>0.8477269309695264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2759873445639334</v>
+        <v>0.4053234168191235</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>39487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35227</v>
+        <v>35381</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>40470</v>
@@ -849,7 +849,7 @@
         <v>0.9757170706229156</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8704578738513893</v>
+        <v>0.8742538499069172</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -944,19 +944,19 @@
         <v>3441</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8993</v>
+        <v>10444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02049986980326026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00550690867755613</v>
+        <v>0.005534508051703559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0535680825507576</v>
+        <v>0.06221351324419422</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -978,19 +978,19 @@
         <v>3441</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10493</v>
+        <v>9417</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01907048069774949</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005124895199546925</v>
+        <v>0.005116537142301707</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05814726317164165</v>
+        <v>0.05218659835357408</v>
       </c>
     </row>
     <row r="8">
@@ -1007,19 +1007,19 @@
         <v>164435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>158883</v>
+        <v>157432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>166952</v>
+        <v>166947</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9795001301967398</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9464319174492425</v>
+        <v>0.9377864867558033</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944930913224438</v>
+        <v>0.9944654919482965</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1041,19 +1041,19 @@
         <v>177017</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>169965</v>
+        <v>171041</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179533</v>
+        <v>179535</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9809295193022505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9418527368283584</v>
+        <v>0.9478134016464259</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9948751048004532</v>
+        <v>0.9948834628576984</v>
       </c>
     </row>
     <row r="9">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5589</v>
+        <v>5689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004265564052515214</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0213926565030762</v>
+        <v>0.02177594310568632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1166,19 +1166,19 @@
         <v>13977</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8421</v>
+        <v>7741</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22386</v>
+        <v>20398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3001548262328553</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1808421669123107</v>
+        <v>0.166244913364472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4807310410893837</v>
+        <v>0.4380392581260467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1187,19 +1187,19 @@
         <v>15091</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8543</v>
+        <v>8560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24786</v>
+        <v>24281</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04902712488405648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02775185084900502</v>
+        <v>0.02780909662790556</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08052239757267367</v>
+        <v>0.07887953231170476</v>
       </c>
     </row>
     <row r="11">
@@ -1216,7 +1216,7 @@
         <v>260139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>255664</v>
+        <v>255564</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>261253</v>
@@ -1225,7 +1225,7 @@
         <v>0.9957344359474848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9786073434969238</v>
+        <v>0.9782240568943137</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1237,19 +1237,19 @@
         <v>32589</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24180</v>
+        <v>26168</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38145</v>
+        <v>38825</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6998451737671446</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5192689589106144</v>
+        <v>0.5619607418739533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8191578330876894</v>
+        <v>0.8337550866355279</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>282</v>
@@ -1258,19 +1258,19 @@
         <v>292728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>283033</v>
+        <v>283538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>299276</v>
+        <v>299259</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9509728751159435</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9194776024273265</v>
+        <v>0.9211204676882953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.972248149150995</v>
+        <v>0.9721909033720945</v>
       </c>
     </row>
     <row r="12">
@@ -1362,19 +1362,19 @@
         <v>6287</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2680</v>
+        <v>2506</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13775</v>
+        <v>12951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02164536893369554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00922734562793019</v>
+        <v>0.008628430811753672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04742468442176</v>
+        <v>0.04458835971766813</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1383,19 +1383,19 @@
         <v>49885</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41381</v>
+        <v>40748</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56704</v>
+        <v>56616</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7174911980723067</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5951764808773874</v>
+        <v>0.5860805007778175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8155696865153172</v>
+        <v>0.8142964748839069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1404,19 +1404,19 @@
         <v>56172</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43209</v>
+        <v>41259</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69015</v>
+        <v>70944</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.156037996234944</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1200290472593219</v>
+        <v>0.114612248105888</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1917143090574497</v>
+        <v>0.1970718601249702</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1433,19 @@
         <v>284176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>276688</v>
+        <v>277512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>287783</v>
+        <v>287957</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9783546310663045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9525753155782399</v>
+        <v>0.9554116402823318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907726543720697</v>
+        <v>0.9913715691882463</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1454,19 +1454,19 @@
         <v>19642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12823</v>
+        <v>12911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28146</v>
+        <v>28779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2825088019276934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1844303134846827</v>
+        <v>0.1857035251160933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4048235191226127</v>
+        <v>0.4139194992221826</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>286</v>
@@ -1475,19 +1475,19 @@
         <v>303818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290975</v>
+        <v>289046</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>316781</v>
+        <v>318731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.843962003765056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8082856909425505</v>
+        <v>0.8029281398750296</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8799709527406782</v>
+        <v>0.8853877518941117</v>
       </c>
     </row>
     <row r="15">
@@ -1579,19 +1579,19 @@
         <v>23152</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14754</v>
+        <v>15267</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34339</v>
+        <v>33647</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08297019124370179</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05287540348655238</v>
+        <v>0.05471293949925984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1230628199092191</v>
+        <v>0.1205820851003403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -1600,19 +1600,19 @@
         <v>147445</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137524</v>
+        <v>138124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>154931</v>
+        <v>154935</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8765497434108668</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8175672296699341</v>
+        <v>0.8211341523645476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9210515058109412</v>
+        <v>0.92107520889664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>166</v>
@@ -1621,19 +1621,19 @@
         <v>170598</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149851</v>
+        <v>149314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>190176</v>
+        <v>192553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3814364116124808</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3350489406308516</v>
+        <v>0.3338484625450515</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4252100291381631</v>
+        <v>0.4305251259670435</v>
       </c>
     </row>
     <row r="17">
@@ -1650,19 +1650,19 @@
         <v>255887</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>244700</v>
+        <v>245392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>264285</v>
+        <v>263772</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9170298087562982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8769371800907807</v>
+        <v>0.8794179148996596</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9471245965134474</v>
+        <v>0.9452870605007402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -1671,19 +1671,19 @@
         <v>20766</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13280</v>
+        <v>13276</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30687</v>
+        <v>30087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1234502565891333</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07894849418905908</v>
+        <v>0.07892479110336011</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.182432770330066</v>
+        <v>0.1788658476354527</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>285</v>
@@ -1692,19 +1692,19 @@
         <v>276653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>257075</v>
+        <v>254698</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>297400</v>
+        <v>297937</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6185635883875191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5747899708618369</v>
+        <v>0.5694748740329566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6649510593691484</v>
+        <v>0.6661515374549486</v>
       </c>
     </row>
     <row r="18">
@@ -1796,19 +1796,19 @@
         <v>45754</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34902</v>
+        <v>34755</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58270</v>
+        <v>59308</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1892401655584242</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1443573196644282</v>
+        <v>0.1437476026624654</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2410100646693167</v>
+        <v>0.2453011645446696</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -1817,19 +1817,19 @@
         <v>190321</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>183740</v>
+        <v>183914</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>194803</v>
+        <v>194889</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9587142935689941</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9255631724576211</v>
+        <v>0.9264409174041749</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9812920541665239</v>
+        <v>0.9817265151416598</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>255</v>
@@ -1838,19 +1838,19 @@
         <v>236075</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>217238</v>
+        <v>216759</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>255738</v>
+        <v>255556</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5361773287237707</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4933944888374647</v>
+        <v>0.4923070124345827</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.580836525373622</v>
+        <v>0.5804249807689629</v>
       </c>
     </row>
     <row r="20">
@@ -1867,19 +1867,19 @@
         <v>196021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183505</v>
+        <v>182467</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206873</v>
+        <v>207020</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8107598344415758</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7589899353306833</v>
+        <v>0.7546988354553305</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8556426803355717</v>
+        <v>0.8562523973375347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1888,19 +1888,19 @@
         <v>8196</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3714</v>
+        <v>3628</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14777</v>
+        <v>14603</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04128570643100594</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01870794583347623</v>
+        <v>0.0182734848583402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07443682754237906</v>
+        <v>0.07355908259582507</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>212</v>
@@ -1909,19 +1909,19 @@
         <v>204217</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184554</v>
+        <v>184736</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>223054</v>
+        <v>223533</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4638226712762293</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4191634746263781</v>
+        <v>0.4195750192310372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5066055111625354</v>
+        <v>0.5076929875654174</v>
       </c>
     </row>
     <row r="21">
@@ -2013,19 +2013,19 @@
         <v>27352</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18884</v>
+        <v>19142</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37118</v>
+        <v>37969</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1938604469468585</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.133841387148782</v>
+        <v>0.1356721363289964</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2630783043470299</v>
+        <v>0.2691090028136027</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -2034,19 +2034,19 @@
         <v>104802</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>97647</v>
+        <v>97210</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>109027</v>
+        <v>109005</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9508630845348602</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8859469413193972</v>
+        <v>0.8819777530442371</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9891947463799183</v>
+        <v>0.9889927501707872</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -2055,19 +2055,19 @@
         <v>132154</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>116566</v>
+        <v>117099</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>148588</v>
+        <v>147841</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5258637510233219</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4638367848340369</v>
+        <v>0.4659585901151269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5912566079494267</v>
+        <v>0.5882878317471245</v>
       </c>
     </row>
     <row r="23">
@@ -2084,19 +2084,19 @@
         <v>113739</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>103973</v>
+        <v>103122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>122207</v>
+        <v>121949</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8061395530531414</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7369216956529701</v>
+        <v>0.7308909971863972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8661586128512175</v>
+        <v>0.8643278636710036</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2105,19 +2105,19 @@
         <v>5416</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1191</v>
+        <v>1213</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12571</v>
+        <v>13008</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04913691546513979</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01080525362008158</v>
+        <v>0.0110072498292128</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1140530586806027</v>
+        <v>0.1180222469557629</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>123</v>
@@ -2126,19 +2126,19 @@
         <v>119154</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>102720</v>
+        <v>103467</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>134742</v>
+        <v>134209</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4741362489766781</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4087433920505733</v>
+        <v>0.4117121682528757</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5361632151659631</v>
+        <v>0.5340414098848731</v>
       </c>
     </row>
     <row r="24">
@@ -2230,19 +2230,19 @@
         <v>107100</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87177</v>
+        <v>88865</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126500</v>
+        <v>128825</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07566188670467343</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0615872000441982</v>
+        <v>0.06277946939149749</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08936730502494225</v>
+        <v>0.09100981288077629</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>505</v>
@@ -2251,19 +2251,19 @@
         <v>507414</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8290043296065239</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>613</v>
@@ -2272,19 +2272,19 @@
         <v>614514</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>575342</v>
+        <v>569277</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>658371</v>
+        <v>655463</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.303076285239454</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2837570956335702</v>
+        <v>0.2807654680396047</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3247063214644998</v>
+        <v>0.3232721470278784</v>
       </c>
     </row>
     <row r="26">
@@ -2301,19 +2301,19 @@
         <v>1308412</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1289012</v>
+        <v>1286687</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1328335</v>
+        <v>1326647</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9243381132953266</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9106326949750573</v>
+        <v>0.908990187119224</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.938412799955801</v>
+        <v>0.9372205306085025</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -2322,19 +2322,19 @@
         <v>104662</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>86758</v>
+        <v>86441</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>126678</v>
+        <v>124772</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1709956703934761</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1417432711818485</v>
+        <v>0.1412255831859251</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2069643078184997</v>
+        <v>0.2038500021598977</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1399</v>
@@ -2343,19 +2343,19 @@
         <v>1413074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1369217</v>
+        <v>1372125</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1452246</v>
+        <v>1458311</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.696923714760546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6752936785355004</v>
+        <v>0.6767278529721219</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7162429043664298</v>
+        <v>0.7192345319603953</v>
       </c>
     </row>
     <row r="27">
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4130</v>
+        <v>4909</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03980338275656043</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1669431046858944</v>
+        <v>0.1984356852636051</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7858</v>
+        <v>7576</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.152423487254455</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4455026543345413</v>
+        <v>0.4295475603372568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2732,19 +2732,19 @@
         <v>3673</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8942</v>
+        <v>9706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.086677926901272</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02336816466139913</v>
+        <v>0.02356576801141152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2110127578879835</v>
+        <v>0.2290238674534074</v>
       </c>
     </row>
     <row r="5">
@@ -2761,7 +2761,7 @@
         <v>23754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20609</v>
+        <v>19830</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>24739</v>
@@ -2770,7 +2770,7 @@
         <v>0.9601966172434395</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8330568953141044</v>
+        <v>0.801564314736395</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>14950</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9780</v>
+        <v>10062</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>17638</v>
@@ -2791,7 +2791,7 @@
         <v>0.847576512745545</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5544973456654587</v>
+        <v>0.5704524396627434</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2803,19 +2803,19 @@
         <v>38705</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33436</v>
+        <v>32672</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41388</v>
+        <v>41379</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.913322073098728</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7889872421120142</v>
+        <v>0.7709761325465927</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9766318353386009</v>
+        <v>0.9764342319885885</v>
       </c>
     </row>
     <row r="6">
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4899</v>
+        <v>5609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007069528893801671</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03582374527492751</v>
+        <v>0.04101027376018172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2928,19 +2928,19 @@
         <v>20487</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12309</v>
+        <v>12966</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30337</v>
+        <v>29623</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2521551707073403</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1514966870601688</v>
+        <v>0.159581547159201</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3733883632870107</v>
+        <v>0.3646039453767699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -2949,19 +2949,19 @@
         <v>21454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13190</v>
+        <v>12262</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33262</v>
+        <v>32374</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09840698704273879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06049956844102919</v>
+        <v>0.05624474109450759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.152568979190379</v>
+        <v>0.1484985424508481</v>
       </c>
     </row>
     <row r="8">
@@ -2978,7 +2978,7 @@
         <v>135796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>131864</v>
+        <v>131154</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>136763</v>
@@ -2987,7 +2987,7 @@
         <v>0.9929304711061984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9641762547250728</v>
+        <v>0.9589897262398185</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2999,19 +2999,19 @@
         <v>60760</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50910</v>
+        <v>51624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68938</v>
+        <v>68281</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7478448292926596</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6266116367129893</v>
+        <v>0.6353960546232299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8485033129398307</v>
+        <v>0.840418452840799</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>187</v>
@@ -3020,19 +3020,19 @@
         <v>196556</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>184748</v>
+        <v>185636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>204820</v>
+        <v>205748</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9015930129572612</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8474310208096207</v>
+        <v>0.8515014575491517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9395004315589708</v>
+        <v>0.9437552589054923</v>
       </c>
     </row>
     <row r="9">
@@ -3124,19 +3124,19 @@
         <v>10683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5533</v>
+        <v>5646</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18044</v>
+        <v>18456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03996295215191714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02069824468622258</v>
+        <v>0.02111987342882182</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06749408975862541</v>
+        <v>0.06903855753814035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3145,19 +3145,19 @@
         <v>21825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14515</v>
+        <v>14156</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31654</v>
+        <v>30485</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1788563488017812</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1189468237967574</v>
+        <v>0.1160080600401367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2594041394484153</v>
+        <v>0.2498195964777613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -3166,19 +3166,19 @@
         <v>32509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22640</v>
+        <v>21878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45151</v>
+        <v>44550</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0834925993561927</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05814554089903409</v>
+        <v>0.05618896353670428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1159611690212634</v>
+        <v>0.1144184315888674</v>
       </c>
     </row>
     <row r="11">
@@ -3195,19 +3195,19 @@
         <v>256652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249291</v>
+        <v>248879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>261802</v>
+        <v>261689</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9600370478480829</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9325059102413745</v>
+        <v>0.9309614424618599</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9793017553137774</v>
+        <v>0.9788801265711783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -3216,19 +3216,19 @@
         <v>100202</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90373</v>
+        <v>91542</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107512</v>
+        <v>107871</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8211436511982189</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7405958605515844</v>
+        <v>0.7501804035222387</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8810531762032425</v>
+        <v>0.8839919399598635</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>340</v>
@@ -3237,19 +3237,19 @@
         <v>356853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>344211</v>
+        <v>344812</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>366722</v>
+        <v>367484</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9165074006438073</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8840388309787367</v>
+        <v>0.8855815684111326</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.941854459100966</v>
+        <v>0.9438110364632957</v>
       </c>
     </row>
     <row r="12">
@@ -3341,19 +3341,19 @@
         <v>9599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4958</v>
+        <v>4478</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17709</v>
+        <v>17156</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03570723058548984</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01844265873973926</v>
+        <v>0.01665724605112769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0658752943797986</v>
+        <v>0.06381705643294382</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -3362,19 +3362,19 @@
         <v>57865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46069</v>
+        <v>44607</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70366</v>
+        <v>69642</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4358515583741139</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3470066583842331</v>
+        <v>0.3359923841455862</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.530013184212304</v>
+        <v>0.5245640953185057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -3383,19 +3383,19 @@
         <v>67464</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52888</v>
+        <v>52525</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84168</v>
+        <v>84574</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1679911090225776</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1316962398435426</v>
+        <v>0.1307916335573542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2095867861721118</v>
+        <v>0.2105966333272464</v>
       </c>
     </row>
     <row r="14">
@@ -3412,19 +3412,19 @@
         <v>259230</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>251120</v>
+        <v>251673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>263871</v>
+        <v>264351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9642927694145101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9341247056202018</v>
+        <v>0.9361829435670562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9815573412602608</v>
+        <v>0.9833427539488724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -3433,19 +3433,19 @@
         <v>74897</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62396</v>
+        <v>63120</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86693</v>
+        <v>88155</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5641484416258862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.469986815787696</v>
+        <v>0.4754359046814944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6529933416157668</v>
+        <v>0.6640076158544138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>304</v>
@@ -3454,19 +3454,19 @@
         <v>334127</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>317423</v>
+        <v>317017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>348703</v>
+        <v>349066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8320088909774224</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7904132138278883</v>
+        <v>0.7894033666727537</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8683037601564575</v>
+        <v>0.8692083664426459</v>
       </c>
     </row>
     <row r="15">
@@ -3558,19 +3558,19 @@
         <v>24482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14906</v>
+        <v>16059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35543</v>
+        <v>38439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08840544735413078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05382480514961455</v>
+        <v>0.05799010653353043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1283462633314238</v>
+        <v>0.1388042147601633</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -3579,19 +3579,19 @@
         <v>194632</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>182772</v>
+        <v>181666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>204884</v>
+        <v>204569</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8504085249879602</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7985880059814252</v>
+        <v>0.7937533072898568</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8952013682549717</v>
+        <v>0.8938268060128542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>198</v>
@@ -3600,19 +3600,19 @@
         <v>219115</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>196694</v>
+        <v>196623</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>242526</v>
+        <v>240489</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4332035435975705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3888762742762331</v>
+        <v>0.3887354635147797</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4794898217464227</v>
+        <v>0.4754610581789754</v>
       </c>
     </row>
     <row r="17">
@@ -3629,19 +3629,19 @@
         <v>252449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>241388</v>
+        <v>238492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>262025</v>
+        <v>260872</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9115945526458692</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8716537366685762</v>
+        <v>0.8611957852398366</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9461751948503855</v>
+        <v>0.9420098934664696</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -3650,19 +3650,19 @@
         <v>34237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23985</v>
+        <v>24300</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46097</v>
+        <v>47203</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1495914750120398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1047986317450282</v>
+        <v>0.106173193987145</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2014119940185746</v>
+        <v>0.2062466927101422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>265</v>
@@ -3671,19 +3671,19 @@
         <v>286686</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263275</v>
+        <v>265312</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>309107</v>
+        <v>309178</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5667964564024295</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5205101782535771</v>
+        <v>0.5245389418210246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6111237257237669</v>
+        <v>0.6112645364852204</v>
       </c>
     </row>
     <row r="18">
@@ -3775,19 +3775,19 @@
         <v>66875</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53413</v>
+        <v>52240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82152</v>
+        <v>81453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2858703478745542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2283253109999405</v>
+        <v>0.2233119511125728</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3511778653636331</v>
+        <v>0.3481907287529974</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>180</v>
@@ -3796,19 +3796,19 @@
         <v>187025</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>179498</v>
+        <v>179484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>190938</v>
+        <v>190980</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9642801897030733</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9254734507799781</v>
+        <v>0.9254013581330672</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9844575537297924</v>
+        <v>0.9846704533738007</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>238</v>
@@ -3817,19 +3817,19 @@
         <v>253900</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>231220</v>
+        <v>234029</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>272467</v>
+        <v>273304</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5933814708337555</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5403756579165861</v>
+        <v>0.5469415475024217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6367742739149185</v>
+        <v>0.6387290308379546</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>167058</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151781</v>
+        <v>152480</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180520</v>
+        <v>181693</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7141296521254459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6488221346363667</v>
+        <v>0.6518092712470024</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7716746890000595</v>
+        <v>0.7766880488874264</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -3867,19 +3867,19 @@
         <v>6928</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3015</v>
+        <v>2973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14455</v>
+        <v>14469</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03571981029692672</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01554244627020758</v>
+        <v>0.01532954662619935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07452654922002179</v>
+        <v>0.07459864186693276</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>165</v>
@@ -3888,19 +3888,19 @@
         <v>173987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>155420</v>
+        <v>154583</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>196667</v>
+        <v>193858</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4066185291662446</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3632257260850814</v>
+        <v>0.3612709691620454</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4596243420834139</v>
+        <v>0.4530584524975783</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>59274</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46875</v>
+        <v>46596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73858</v>
+        <v>74082</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3553186447527729</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2809919803437677</v>
+        <v>0.2793198687522083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4427476338247991</v>
+        <v>0.4440903411133372</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>128</v>
@@ -4013,7 +4013,7 @@
         <v>141117</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>136865</v>
+        <v>136787</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>142194</v>
@@ -4022,7 +4022,7 @@
         <v>0.9924290814936668</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9625247100358074</v>
+        <v>0.9619715143164648</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4034,19 +4034,19 @@
         <v>200391</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>180244</v>
+        <v>182277</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>217768</v>
+        <v>217445</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6484888191541391</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5832924069140223</v>
+        <v>0.5898696647933342</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.704724120654567</v>
+        <v>0.7036797690072553</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>107544</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>92960</v>
+        <v>92736</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>119943</v>
+        <v>120222</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6446813552472271</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5572523661752008</v>
+        <v>0.5559096588866629</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7190080196562323</v>
+        <v>0.7206801312477917</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5329</v>
+        <v>5407</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007570918506333218</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03747528996419271</v>
+        <v>0.03802848568353532</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>96</v>
@@ -4105,19 +4105,19 @@
         <v>108621</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>91244</v>
+        <v>91567</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>128768</v>
+        <v>126735</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3515111808458608</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2952758793454329</v>
+        <v>0.2963202309927448</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4167075930859776</v>
+        <v>0.4101303352066658</v>
       </c>
     </row>
     <row r="24">
@@ -4209,19 +4209,19 @@
         <v>172865</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>146968</v>
+        <v>146852</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>201104</v>
+        <v>199626</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1256878019828432</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1068585417763562</v>
+        <v>0.1067740754186132</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1462203184004502</v>
+        <v>0.1451453997702109</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>574</v>
@@ -4230,19 +4230,19 @@
         <v>625640</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>591528</v>
+        <v>595639</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>652132</v>
+        <v>654559</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6810124027462398</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6438810803029139</v>
+        <v>0.6483557346222826</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7098494970935557</v>
+        <v>0.7124904327172231</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>726</v>
@@ -4251,19 +4251,19 @@
         <v>798505</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>745818</v>
+        <v>752908</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>841352</v>
+        <v>844870</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3480779289039598</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3251112399089577</v>
+        <v>0.3282016809123373</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3667554435963214</v>
+        <v>0.3682892510355006</v>
       </c>
     </row>
     <row r="26">
@@ -4280,19 +4280,19 @@
         <v>1202484</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1174245</v>
+        <v>1175723</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1228381</v>
+        <v>1228497</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8743121980171568</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8537796815995498</v>
+        <v>0.8548546002297891</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8931414582236438</v>
+        <v>0.8932259245813866</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>270</v>
@@ -4301,19 +4301,19 @@
         <v>293051</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>266559</v>
+        <v>264132</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>327163</v>
+        <v>323052</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3189875972537602</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2901505029064443</v>
+        <v>0.2875095672827768</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.356118919697086</v>
+        <v>0.3516442653777174</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1396</v>
@@ -4322,19 +4322,19 @@
         <v>1495535</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1452688</v>
+        <v>1449170</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1548222</v>
+        <v>1541132</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6519220710960402</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6332445564036788</v>
+        <v>0.6317107489644992</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6748887600910425</v>
+        <v>0.6717983190876629</v>
       </c>
     </row>
     <row r="27">
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7885</v>
+        <v>9129</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1274377369568266</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3453546320487741</v>
+        <v>0.3998474026951411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5438</v>
+        <v>5501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05646420607316229</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1752984991430817</v>
+        <v>0.1773286795867938</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4711,19 +4711,19 @@
         <v>4661</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1745</v>
+        <v>1754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11882</v>
+        <v>12726</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08655209664134147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03239474145231805</v>
+        <v>0.03257494422954856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2206299862549475</v>
+        <v>0.2362979246727533</v>
       </c>
     </row>
     <row r="5">
@@ -4740,7 +4740,7 @@
         <v>19921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14946</v>
+        <v>13702</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>22831</v>
@@ -4749,7 +4749,7 @@
         <v>0.8725622630431734</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6546453679512265</v>
+        <v>0.6001525973048586</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>29272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25586</v>
+        <v>25523</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>31024</v>
@@ -4770,7 +4770,7 @@
         <v>0.9435357939268377</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8247015008569183</v>
+        <v>0.8226713204132066</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4782,19 +4782,19 @@
         <v>49194</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41973</v>
+        <v>41129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52110</v>
+        <v>52101</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9134479033586586</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7793700137450531</v>
+        <v>0.7637020753272465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.967605258547682</v>
+        <v>0.9674250557704515</v>
       </c>
     </row>
     <row r="6">
@@ -4886,19 +4886,19 @@
         <v>7419</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3139</v>
+        <v>3129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14923</v>
+        <v>15006</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04703937260250689</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01990155656917384</v>
+        <v>0.01984171540435226</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09461996685489409</v>
+        <v>0.09514462659001158</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4907,19 +4907,19 @@
         <v>7320</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3501</v>
+        <v>3364</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14340</v>
+        <v>14129</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1445179641471679</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06911325201202111</v>
+        <v>0.06640419980986599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2831082734255986</v>
+        <v>0.2789491816024386</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -4928,19 +4928,19 @@
         <v>14739</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8576</v>
+        <v>8637</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23251</v>
+        <v>24189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07073572443726404</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04115715168117907</v>
+        <v>0.04145262415596306</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1115893527125297</v>
+        <v>0.1160884343402205</v>
       </c>
     </row>
     <row r="8">
@@ -4957,19 +4957,19 @@
         <v>150294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>142790</v>
+        <v>142707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>154574</v>
+        <v>154584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9529606273974931</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9053800331451062</v>
+        <v>0.90485537340999</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9800984434308262</v>
+        <v>0.9801582845956478</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -4978,19 +4978,19 @@
         <v>43332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36312</v>
+        <v>36523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47151</v>
+        <v>47288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8554820358528321</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7168917265744031</v>
+        <v>0.7210508183975614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9308867479879792</v>
+        <v>0.9335958001901344</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>185</v>
@@ -4999,19 +4999,19 @@
         <v>193627</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>185115</v>
+        <v>184177</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>199790</v>
+        <v>199729</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9292642755627359</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8884106472874699</v>
+        <v>0.8839115656597795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9588428483188208</v>
+        <v>0.958547375844037</v>
       </c>
     </row>
     <row r="9">
@@ -5103,19 +5103,19 @@
         <v>11322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5763</v>
+        <v>6321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19968</v>
+        <v>21551</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04528647428847119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02305273458042166</v>
+        <v>0.02528363041145286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0798734341976669</v>
+        <v>0.08620541254927222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -5124,19 +5124,19 @@
         <v>22039</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14787</v>
+        <v>13957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31346</v>
+        <v>31402</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2001916380720321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1343150906236204</v>
+        <v>0.1267809814329449</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2847318690372708</v>
+        <v>0.2852396205132269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -5145,19 +5145,19 @@
         <v>33361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23388</v>
+        <v>23773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45393</v>
+        <v>46556</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09264615422782639</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06495049311664446</v>
+        <v>0.06602087793874402</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1260600466529904</v>
+        <v>0.1292909243087305</v>
       </c>
     </row>
     <row r="11">
@@ -5174,19 +5174,19 @@
         <v>238676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>230030</v>
+        <v>228447</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>244235</v>
+        <v>243677</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9547135257115288</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9201265658023331</v>
+        <v>0.9137945874507279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9769472654195784</v>
+        <v>0.9747163695885472</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>89</v>
@@ -5195,19 +5195,19 @@
         <v>88052</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78745</v>
+        <v>78689</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95304</v>
+        <v>96134</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7998083619279679</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7152681309627291</v>
+        <v>0.7147603794867727</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8656849093763795</v>
+        <v>0.8732190185670542</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>322</v>
@@ -5216,19 +5216,19 @@
         <v>326728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>314696</v>
+        <v>313533</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>336701</v>
+        <v>336316</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9073538457721736</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8739399533470095</v>
+        <v>0.8707090756912695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9350495068833555</v>
+        <v>0.933979122061256</v>
       </c>
     </row>
     <row r="12">
@@ -5320,19 +5320,19 @@
         <v>13565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7082</v>
+        <v>7350</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23976</v>
+        <v>22944</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05071909782903389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02647859135113253</v>
+        <v>0.02747972399303338</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08964285750840865</v>
+        <v>0.08578400173409743</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -5341,19 +5341,19 @@
         <v>39134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28545</v>
+        <v>27848</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50139</v>
+        <v>50588</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2839613345429428</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.207124752885813</v>
+        <v>0.2020728317447167</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3638131359712632</v>
+        <v>0.3670713635772837</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -5362,19 +5362,19 @@
         <v>52699</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40001</v>
+        <v>39561</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67529</v>
+        <v>67940</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1300334255302842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09870158554659657</v>
+        <v>0.09761690441769787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1666247431176725</v>
+        <v>0.1676412899762922</v>
       </c>
     </row>
     <row r="14">
@@ -5391,19 +5391,19 @@
         <v>253895</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>243484</v>
+        <v>244516</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>260378</v>
+        <v>260110</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9492809021709661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9103571424915914</v>
+        <v>0.9142159982659026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9735214086488676</v>
+        <v>0.9725202760069668</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>93</v>
@@ -5412,19 +5412,19 @@
         <v>98680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87675</v>
+        <v>87226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>109269</v>
+        <v>109966</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7160386654570573</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6361868640287374</v>
+        <v>0.6329286364227165</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.792875247114187</v>
+        <v>0.7979271682552839</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>324</v>
@@ -5433,19 +5433,19 @@
         <v>352574</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>337744</v>
+        <v>337333</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>365272</v>
+        <v>365712</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8699665744697158</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8333752568823278</v>
+        <v>0.8323587100237078</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9012984144534034</v>
+        <v>0.9023830955823021</v>
       </c>
     </row>
     <row r="15">
@@ -5537,19 +5537,19 @@
         <v>23189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14064</v>
+        <v>14690</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34243</v>
+        <v>35931</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08635579830873358</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05237409924385866</v>
+        <v>0.0547055705131332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1275223260998188</v>
+        <v>0.1338076939163962</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -5558,19 +5558,19 @@
         <v>169231</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>155796</v>
+        <v>156574</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180960</v>
+        <v>181024</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8099330075456856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7456367148447377</v>
+        <v>0.7493573768352502</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8660688491212674</v>
+        <v>0.866376516362752</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>168</v>
@@ -5579,19 +5579,19 @@
         <v>192419</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>168711</v>
+        <v>168005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214372</v>
+        <v>214549</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4029972254281776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3533444235188953</v>
+        <v>0.3518658313844544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4489745500454189</v>
+        <v>0.4493445889869645</v>
       </c>
     </row>
     <row r="17">
@@ -5608,19 +5608,19 @@
         <v>245338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>234284</v>
+        <v>232596</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>254463</v>
+        <v>253837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9136442016912665</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8724776739001813</v>
+        <v>0.8661923060836032</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9476259007561414</v>
+        <v>0.9452944294868666</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -5629,19 +5629,19 @@
         <v>39713</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27984</v>
+        <v>27920</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53148</v>
+        <v>52370</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1900669924543143</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1339311508787327</v>
+        <v>0.1336234836372478</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2543632851552623</v>
+        <v>0.2506426231647499</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>255</v>
@@ -5650,19 +5650,19 @@
         <v>285051</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263098</v>
+        <v>262921</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>308759</v>
+        <v>309465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5970027745718224</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5510254499545811</v>
+        <v>0.5506554110130355</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6466555764811046</v>
+        <v>0.6481341686155458</v>
       </c>
     </row>
     <row r="18">
@@ -5754,19 +5754,19 @@
         <v>65901</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52177</v>
+        <v>53875</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80326</v>
+        <v>79649</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2759828003560659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2185071317431309</v>
+        <v>0.2256177427291978</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3363924892051498</v>
+        <v>0.3335557022021671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>202</v>
@@ -5775,7 +5775,7 @@
         <v>215714</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>211575</v>
+        <v>211578</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>217721</v>
@@ -5784,7 +5784,7 @@
         <v>0.9907796307282754</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9717731772567267</v>
+        <v>0.9717868601050508</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -5796,19 +5796,19 @@
         <v>281615</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>262038</v>
+        <v>262024</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>301329</v>
+        <v>302328</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6168889799387454</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5740055805338949</v>
+        <v>0.5739742638840604</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6600745384749606</v>
+        <v>0.6622614358844237</v>
       </c>
     </row>
     <row r="20">
@@ -5825,19 +5825,19 @@
         <v>172886</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158461</v>
+        <v>159138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>186610</v>
+        <v>184912</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7240171996439341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6636075107948503</v>
+        <v>0.666444297797833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7814928682568693</v>
+        <v>0.7743822572708021</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6146</v>
+        <v>6143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009220369271724638</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02822682274327333</v>
+        <v>0.02821313989494892</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -5867,19 +5867,19 @@
         <v>174893</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>155179</v>
+        <v>154180</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>194470</v>
+        <v>194484</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3831110200612546</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3399254615250409</v>
+        <v>0.3377385641155765</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4259944194661052</v>
+        <v>0.4260257361159398</v>
       </c>
     </row>
     <row r="21">
@@ -5971,19 +5971,19 @@
         <v>44780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35178</v>
+        <v>34726</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55796</v>
+        <v>54781</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2935913515992025</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.230639146293966</v>
+        <v>0.227675382166632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3658165251743375</v>
+        <v>0.3591644379829492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>103</v>
@@ -5992,7 +5992,7 @@
         <v>137684</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131716</v>
+        <v>131505</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>140151</v>
@@ -6001,7 +6001,7 @@
         <v>0.9824002916732122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9398161932284351</v>
+        <v>0.9383064569818285</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -6013,19 +6013,19 @@
         <v>182464</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166629</v>
+        <v>165262</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>198386</v>
+        <v>198357</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6234359655297</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5693295207554834</v>
+        <v>0.5646606632426256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6778382785361269</v>
+        <v>0.6777372636648596</v>
       </c>
     </row>
     <row r="23">
@@ -6042,19 +6042,19 @@
         <v>107744</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>96728</v>
+        <v>97743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>117346</v>
+        <v>117798</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7064086484007975</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6341834748256624</v>
+        <v>0.6408355620170508</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7693608537060337</v>
+        <v>0.772324617833368</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8435</v>
+        <v>8646</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0175997083267878</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06018380677156486</v>
+        <v>0.06169354301817152</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>130</v>
@@ -6084,19 +6084,19 @@
         <v>110211</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>94289</v>
+        <v>94318</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>126046</v>
+        <v>127413</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3765640344703</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3221617214638731</v>
+        <v>0.3222627363351401</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4306704792445166</v>
+        <v>0.4353393367573744</v>
       </c>
     </row>
     <row r="24">
@@ -6188,19 +6188,19 @@
         <v>169085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>144822</v>
+        <v>145464</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>194046</v>
+        <v>193354</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1245248439097295</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1066559123807741</v>
+        <v>0.107128787411487</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1429080253099005</v>
+        <v>0.1423982180745963</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>521</v>
@@ -6209,19 +6209,19 @@
         <v>592873</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>561459</v>
+        <v>565324</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>622053</v>
+        <v>620762</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.661395897553089</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6263506872068259</v>
+        <v>0.6306628538798604</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.693948504842934</v>
+        <v>0.6925074930843803</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>690</v>
@@ -6230,19 +6230,19 @@
         <v>761958</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>718557</v>
+        <v>713882</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>809478</v>
+        <v>808079</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3380116568486318</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3187584847664577</v>
+        <v>0.3166847251738127</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.359091839875714</v>
+        <v>0.3584711424427872</v>
       </c>
     </row>
     <row r="26">
@@ -6259,19 +6259,19 @@
         <v>1188754</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1163793</v>
+        <v>1164485</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1213017</v>
+        <v>1212375</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8754751560902705</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8570919746900995</v>
+        <v>0.8576017819254035</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.893344087619226</v>
+        <v>0.8928712125885129</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>292</v>
@@ -6280,19 +6280,19 @@
         <v>303524</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>274344</v>
+        <v>275635</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>334938</v>
+        <v>331073</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.338604102446911</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3060514951570661</v>
+        <v>0.3074925069156194</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3736493127931743</v>
+        <v>0.3693371461201393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1433</v>
@@ -6301,19 +6301,19 @@
         <v>1492279</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1444759</v>
+        <v>1446158</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1535680</v>
+        <v>1540355</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6619883431513682</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6409081601242862</v>
+        <v>0.641528857557213</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6812415152335423</v>
+        <v>0.6833152748261874</v>
       </c>
     </row>
     <row r="27">
